--- a/src/test/java/py/Picking List Template.xlsx
+++ b/src/test/java/py/Picking List Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Truck Session ID</t>
   </si>
@@ -1113,7 +1113,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>16</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>18</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>20</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>21</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>22</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>23</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>24</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>25</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>26</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>27</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>28</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>29</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>30</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>31</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>32</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>33</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>34</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>35</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>36</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>37</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>38</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>39</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>40</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>41</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>42</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>43</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>44</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>45</v>
@@ -1613,496 +1613,12 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>26740.0</v>
+        <v>26754.0</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="4" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="4" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="4" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="4" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="4" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="4" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="4" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="4" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="4" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="4" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="4" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" s="4" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" s="4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" s="4" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C84" s="4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C85" s="4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" s="4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" s="4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="n">
-        <v>26741.0</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="4" t="n">
         <v>2.0</v>
       </c>
     </row>
